--- a/PI - Planilha base.xlsx
+++ b/PI - Planilha base.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\TCC-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Base" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="3º TDS &quot;A&quot;" sheetId="2" r:id="rId5"/>
+    <sheet name="Base" sheetId="1" r:id="rId1"/>
+    <sheet name="3º TDS &quot;A&quot;" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="151">
   <si>
     <t>Alunos - Turmas</t>
   </si>
@@ -459,26 +467,31 @@
   </si>
   <si>
     <t xml:space="preserve">Marcelo Pereira </t>
+  </si>
+  <si>
+    <t>Turma</t>
+  </si>
+  <si>
+    <t>3ºTDSA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -486,38 +499,60 @@
     <font>
       <b/>
       <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -525,7 +560,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -535,84 +570,84 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -802,349 +837,398 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.38"/>
-    <col customWidth="1" min="2" max="2" width="24.63"/>
-    <col customWidth="1" min="3" max="3" width="16.38"/>
-    <col customWidth="1" min="4" max="4" width="15.0"/>
-    <col customWidth="1" min="5" max="5" width="18.25"/>
-    <col customWidth="1" min="6" max="6" width="16.38"/>
-    <col customWidth="1" min="7" max="7" width="15.63"/>
-    <col customWidth="1" min="8" max="8" width="23.75"/>
-    <col customWidth="1" min="9" max="9" width="26.38"/>
-    <col customWidth="1" min="10" max="10" width="23.88"/>
-    <col customWidth="1" min="11" max="11" width="22.13"/>
-    <col customWidth="1" min="12" max="12" width="26.5"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="11"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="11"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="11"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="11"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="11"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="11"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="11"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="11"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="11"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32">
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33">
-      <c r="E33" s="11"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="8"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="8"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="8"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="8"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="8"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="8"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1153,1050 +1237,1175 @@
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.38"/>
-    <col customWidth="1" min="2" max="2" width="24.63"/>
-    <col customWidth="1" min="3" max="3" width="16.38"/>
-    <col customWidth="1" min="4" max="4" width="15.0"/>
-    <col customWidth="1" min="5" max="5" width="18.25"/>
-    <col customWidth="1" min="6" max="6" width="16.38"/>
-    <col customWidth="1" min="7" max="7" width="15.63"/>
-    <col customWidth="1" min="8" max="8" width="23.75"/>
-    <col customWidth="1" min="9" max="9" width="26.38"/>
-    <col customWidth="1" min="10" max="10" width="23.88"/>
-    <col customWidth="1" min="11" max="11" width="22.13"/>
-    <col customWidth="1" min="12" max="12" width="26.5"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="M5" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="10">
-        <v>2.8395472E7</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="7">
+        <v>28395472</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="16">
-        <v>38822.0</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="H6" s="13">
+        <v>38822</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K6" s="15" t="s">
+      <c r="J6" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="M6" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="10">
-        <v>1.6807594E7</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="7">
+        <v>16807594</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K7" s="15" t="s">
+      <c r="J7" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="M7" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="10">
-        <v>4.7610238E7</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="7">
+        <v>47610238</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K8" s="15" t="s">
+      <c r="J8" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="M8" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="10">
-        <v>3.5926481E7</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="7">
+        <v>35926481</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K9" s="15" t="s">
+      <c r="J9" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="M9" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="10">
-        <v>5.9173824E7</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="7">
+        <v>59173824</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K10" s="15" t="s">
+      <c r="J10" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="M10" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="10">
-        <v>8.2415739E7</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="7">
+        <v>82415739</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K11" s="15" t="s">
+      <c r="J11" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="M11" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="10">
-        <v>7.3681942E7</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="7">
+        <v>73681942</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K12" s="15" t="s">
+      <c r="J12" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="M12" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="10">
-        <v>9.4256187E7</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="7">
+        <v>94256187</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K13" s="15" t="s">
+      <c r="J13" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="M13" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="10">
-        <v>2.1539876E7</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="7">
+        <v>21539876</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K14" s="15" t="s">
+      <c r="J14" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="M14" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="10">
-        <v>6.8324915E7</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="7">
+        <v>68324915</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K15" s="15" t="s">
+      <c r="J15" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="M15" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="10">
-        <v>4.3769512E7</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="7">
+        <v>43769512</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K16" s="15" t="s">
+      <c r="J16" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="s">
+      <c r="M16" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="10">
-        <v>5.7894326E7</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="7">
+        <v>57894326</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K17" s="15" t="s">
+      <c r="J17" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="M17" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="10">
-        <v>3.9615287E7</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="7">
+        <v>39615287</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K18" s="15" t="s">
+      <c r="J18" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K18" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="M18" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="10">
-        <v>1.4982763E7</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="7">
+        <v>14982763</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K19" s="15" t="s">
+      <c r="J19" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="M19" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="10">
-        <v>2.6473819E7</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="7">
+        <v>26473819</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K20" s="15" t="s">
+      <c r="J20" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="M20" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="10">
-        <v>9.1358642E7</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="7">
+        <v>91358642</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K21" s="15" t="s">
+      <c r="J21" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="M21" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="10">
-        <v>6.3827915E7</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="D22" s="7">
+        <v>63827915</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="J22" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="M22" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="10">
-        <v>7.5296183E7</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="7">
+        <v>75296183</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K23" s="15" t="s">
+      <c r="J23" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="M23" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="10">
-        <v>3.2168497E7</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="7">
+        <v>32168497</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K24" s="15" t="s">
+      <c r="J24" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="9" t="s">
+      <c r="M24" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="10">
-        <v>4.8729631E7</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="D25" s="7">
+        <v>48729631</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K25" s="15" t="s">
+      <c r="J25" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K25" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="L25" s="12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="9" t="s">
+      <c r="M25" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="10">
-        <v>1.9347826E7</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="D26" s="7">
+        <v>19347826</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K26" s="15" t="s">
+      <c r="J26" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="L26" s="12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="9" t="s">
+      <c r="M26" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="10">
-        <v>8.4632971E7</v>
-      </c>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="7">
+        <v>84632971</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K27" s="15" t="s">
+      <c r="J27" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="L27" s="12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="9" t="s">
+      <c r="M27" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="10">
-        <v>5.6287913E7</v>
-      </c>
-      <c r="E28" s="11" t="s">
+      <c r="D28" s="7">
+        <v>56287913</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K28" s="15" t="s">
+      <c r="J28" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="9" t="s">
+      <c r="M28" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="10">
-        <v>3.7542698E7</v>
-      </c>
-      <c r="E29" s="11" t="s">
+      <c r="D29" s="7">
+        <v>37542698</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K29" s="15" t="s">
+      <c r="J29" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="L29" s="12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="9" t="s">
+      <c r="M29" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="10">
-        <v>6.9813257E7</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="D30" s="7">
+        <v>69813257</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="13">
-        <v>45641.0</v>
-      </c>
-      <c r="K30" s="15" t="s">
+      <c r="J30" s="10">
+        <v>45641</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="L30" s="12" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32">
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33">
-      <c r="E33" s="11"/>
+      <c r="M30" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2205,6 +2414,7 @@
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>